--- a/biology/Zoologie/Epilineutes_globosus/Epilineutes_globosus.xlsx
+++ b/biology/Zoologie/Epilineutes_globosus/Epilineutes_globosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epilineutes globosus, unique représentant du genre Epilineutes, est une espèce d'araignées aranéomorphes de la famille des Theridiosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epilineutes globosus, unique représentant du genre Epilineutes, est une espèce d'araignées aranéomorphes de la famille des Theridiosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du Mexique au Brésil[1]. Elle a été observée au Mexique au Tabasco et au Chiapas, au Guatemala, au Costa Rica, au Panama, en Colombie, en Équateur, au Pérou et au Brésil dans l'État de Rio de Janeiro[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du Mexique au Brésil. Elle a été observée au Mexique au Tabasco et au Chiapas, au Guatemala, au Costa Rica, au Panama, en Colombie, en Équateur, au Pérou et au Brésil dans l'État de Rio de Janeiro.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 1,5 à 1,9 mm et les femelles de 1,7 à 2,6 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 1,5 à 1,9 mm et les femelles de 1,7 à 2,6 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1896 : Arachnida. Araneida. Biologia Centrali-Americana, Zoology. London, vol. 1, p. 161-224 (texte intégral).
 Coddington, 1986 : The genera of the spider family Theridiosomatidae. Smithsonian Contributions to Zoology, no 422, p. 1-96 (texte intégral).</t>
